--- a/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
+++ b/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marta\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DB1AA4D-7774-4A03-91BB-92BA2B8F6DAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C39A193-7A16-40F0-9F37-5646D57C0261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{87F66409-35C4-456F-BC62-BC56FFE0C1BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{87F66409-35C4-456F-BC62-BC56FFE0C1BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tablice" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>ERP SUSTAV VINARIJE</t>
   </si>
@@ -162,6 +163,51 @@
   </si>
   <si>
     <t>15* ISPORUČENO</t>
+  </si>
+  <si>
+    <t>Kupac</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>ime</t>
+  </si>
+  <si>
+    <t>prezime</t>
+  </si>
+  <si>
+    <t>kupljeno_vino</t>
+  </si>
+  <si>
+    <t>id_racun</t>
+  </si>
+  <si>
+    <t>datum</t>
+  </si>
+  <si>
+    <t>Zaposlenik</t>
+  </si>
+  <si>
+    <t>odjel</t>
+  </si>
+  <si>
+    <t>datum_zaposlenja</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Naljepnica</t>
+  </si>
+  <si>
+    <t>id_vino</t>
+  </si>
+  <si>
+    <t>dobavljac</t>
+  </si>
+  <si>
+    <t>zaliha</t>
   </si>
 </sst>
 </file>
@@ -201,7 +247,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -209,16 +255,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7432BE-04CE-41AF-8A36-CC270421C425}">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
@@ -712,4 +798,95 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B2FB6F-F6FF-4612-A9A6-E7441E4E2505}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
+++ b/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marta\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\users\marko\Documents\BP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C39A193-7A16-40F0-9F37-5646D57C0261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544B785F-B59F-48CE-942F-36C3A35DBB31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{87F66409-35C4-456F-BC62-BC56FFE0C1BA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>ERP SUSTAV VINARIJE</t>
   </si>
@@ -208,6 +208,57 @@
   </si>
   <si>
     <t>zaliha</t>
+  </si>
+  <si>
+    <t>PlanProizvodnje</t>
+  </si>
+  <si>
+    <t>naziv_prizvoda</t>
+  </si>
+  <si>
+    <t>datum_pocetka</t>
+  </si>
+  <si>
+    <t>datum_zavrsetka</t>
+  </si>
+  <si>
+    <t>kolicina</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>SkladisteGotoveRobe</t>
+  </si>
+  <si>
+    <t>naziv_proizvoda</t>
+  </si>
+  <si>
+    <t>lokacija</t>
+  </si>
+  <si>
+    <t>datum_ulaska</t>
+  </si>
+  <si>
+    <t>rok_trajanja</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>naziv_vozila</t>
+  </si>
+  <si>
+    <t>ime_vozaca</t>
+  </si>
+  <si>
+    <t>datum_polaska</t>
+  </si>
+  <si>
+    <t>datum_dolaska</t>
+  </si>
+  <si>
+    <t>id_proizvod</t>
   </si>
 </sst>
 </file>
@@ -239,12 +290,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -296,15 +353,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -320,6 +378,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2BC799C-FBE3-4B6A-8BA9-6116F036BD8C}" name="Table1" displayName="Table1" ref="A13:A19" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{A336F9B4-C47B-4926-9979-30F51A2CB9D6}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D4DAC399-B35D-4CE8-87AD-7A8A25B1CE95}" name="Table2" displayName="Table2" ref="C14:C20" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{BF1C3FBC-7060-426E-B84B-878F69F760D7}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -621,14 +697,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7432BE-04CE-41AF-8A36-CC270421C425}">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA7" sqref="Y5:AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -802,91 +878,183 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B2FB6F-F6FF-4612-A9A6-E7441E4E2505}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
+++ b/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\users\marko\Documents\BP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\FIPU\Druga godina\Baze podataka 2\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544B785F-B59F-48CE-942F-36C3A35DBB31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666E89B5-8656-45D9-8D51-3071D8E73540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{87F66409-35C4-456F-BC62-BC56FFE0C1BA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
   <si>
     <t>ERP SUSTAV VINARIJE</t>
   </si>
@@ -108,9 +108,6 @@
     <t>9* DOBAVLJAČI</t>
   </si>
   <si>
-    <t>ukoliko nešto od repromaterijala nedostaje, prodaja otvara ZEHTJEV ZA NABAVU - kreira ga ZAPOSLENIK, samo iz odjela nabave</t>
-  </si>
-  <si>
     <t>10* ZAPOSLENICI</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>PlanProizvodnje</t>
   </si>
   <si>
-    <t>naziv_prizvoda</t>
-  </si>
-  <si>
     <t>datum_pocetka</t>
   </si>
   <si>
@@ -259,6 +253,75 @@
   </si>
   <si>
     <t>id_proizvod</t>
+  </si>
+  <si>
+    <t>ukoliko nešto od repromaterijala nedostaje, prodaja otvara ZAHTJEV ZA NABAVU - kreira ga ZAPOSLENIK, samo iz odjela nabave</t>
+  </si>
+  <si>
+    <t>Vino</t>
+  </si>
+  <si>
+    <t>naziv</t>
+  </si>
+  <si>
+    <t>godina_berbe</t>
+  </si>
+  <si>
+    <t>vrsta</t>
+  </si>
+  <si>
+    <t>sorta</t>
+  </si>
+  <si>
+    <t>volumen</t>
+  </si>
+  <si>
+    <t>Cep</t>
+  </si>
+  <si>
+    <t>Boca</t>
+  </si>
+  <si>
+    <t>id_cep</t>
+  </si>
+  <si>
+    <t>id_boca</t>
+  </si>
+  <si>
+    <t>cijena</t>
+  </si>
+  <si>
+    <t>Zahtjev_za_narudzbu</t>
+  </si>
+  <si>
+    <t>Proizvod</t>
+  </si>
+  <si>
+    <t>datum_punjenja</t>
+  </si>
+  <si>
+    <t>id_kupac</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>telefon</t>
+  </si>
+  <si>
+    <t>datum_zahtjeva</t>
+  </si>
+  <si>
+    <t>Stavka_narudzbe</t>
+  </si>
+  <si>
+    <t>id_zahtjev_za_narudzbu</t>
+  </si>
+  <si>
+    <t>ukupni_iznos</t>
+  </si>
+  <si>
+    <t>iznos_stavke</t>
   </si>
 </sst>
 </file>
@@ -353,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -363,6 +426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,9 +463,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -439,7 +503,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -545,7 +609,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -687,7 +751,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -697,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7432BE-04CE-41AF-8A36-CC270421C425}">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA7" sqref="Y5:AA7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +799,7 @@
         <v>9</v>
       </c>
       <c r="Y4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -746,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="Y5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -754,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="Y6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -765,7 +829,7 @@
         <v>12</v>
       </c>
       <c r="Y7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -776,7 +840,7 @@
         <v>13</v>
       </c>
       <c r="Y8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -784,7 +848,7 @@
         <v>8</v>
       </c>
       <c r="Y9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -794,17 +858,17 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -814,7 +878,7 @@
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
@@ -824,47 +888,47 @@
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -878,176 +942,307 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B2FB6F-F6FF-4612-A9A6-E7441E4E2505}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
+    <col min="15" max="15" width="21" customWidth="1"/>
+    <col min="17" max="17" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E21" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
+++ b/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\FIPU\Druga godina\Baze podataka 2\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C88513D-7515-4EDD-9E3C-2D103D4710F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C87A72-A7D0-457C-AAD1-8D8E411689FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{87F66409-35C4-456F-BC62-BC56FFE0C1BA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="100">
   <si>
     <t>ERP SUSTAV VINARIJE</t>
   </si>
@@ -174,15 +174,6 @@
     <t>prezime</t>
   </si>
   <si>
-    <t>kupljeno_vino</t>
-  </si>
-  <si>
-    <t>id_racun</t>
-  </si>
-  <si>
-    <t>datum</t>
-  </si>
-  <si>
     <t>Zaposlenik</t>
   </si>
   <si>
@@ -201,15 +192,9 @@
     <t>id_vino</t>
   </si>
   <si>
-    <t>dobavljac</t>
-  </si>
-  <si>
     <t>zaliha</t>
   </si>
   <si>
-    <t>PlanProizvodnje</t>
-  </si>
-  <si>
     <t>datum_pocetka</t>
   </si>
   <si>
@@ -222,12 +207,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>SkladisteGotoveRobe</t>
-  </si>
-  <si>
-    <t>naziv_proizvoda</t>
-  </si>
-  <si>
     <t>lokacija</t>
   </si>
   <si>
@@ -240,9 +219,6 @@
     <t>Transport</t>
   </si>
   <si>
-    <t>naziv_vozila</t>
-  </si>
-  <si>
     <t>ime_vozaca</t>
   </si>
   <si>
@@ -279,15 +255,9 @@
     <t>Cep</t>
   </si>
   <si>
-    <t>Boca</t>
-  </si>
-  <si>
     <t>id_cep</t>
   </si>
   <si>
-    <t>id_boca</t>
-  </si>
-  <si>
     <t>cijena</t>
   </si>
   <si>
@@ -324,35 +294,68 @@
     <t>iznos_stavke</t>
   </si>
   <si>
-    <t>ZahtjevZaNarudzbu</t>
-  </si>
-  <si>
-    <t>ZahtjevZaNabavu</t>
-  </si>
-  <si>
     <t>Dobavljac</t>
   </si>
   <si>
     <t>adresa</t>
   </si>
   <si>
-    <t>datum_narudzbe</t>
-  </si>
-  <si>
-    <t>id_skladiste</t>
-  </si>
-  <si>
     <t>id_zaposlenik</t>
   </si>
   <si>
     <t>id_dobavljac</t>
+  </si>
+  <si>
+    <t>Plan_proizvodnje</t>
+  </si>
+  <si>
+    <t>oib</t>
+  </si>
+  <si>
+    <t>e_mail</t>
+  </si>
+  <si>
+    <t>postotak_alkohola</t>
+  </si>
+  <si>
+    <t>zaiha</t>
+  </si>
+  <si>
+    <t>Vrsta_ambalaze</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>id_ambalaza</t>
+  </si>
+  <si>
+    <t>id_naljepnica</t>
+  </si>
+  <si>
+    <t>Skladiste_proizvod</t>
+  </si>
+  <si>
+    <t>registracija</t>
+  </si>
+  <si>
+    <t>Racun</t>
+  </si>
+  <si>
+    <t>id_transport</t>
+  </si>
+  <si>
+    <t>Zahtjev_za_nabavu</t>
+  </si>
+  <si>
+    <t>datum_racuna</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,19 +379,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -446,10 +450,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,13 +789,13 @@
   <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -901,7 +905,7 @@
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
@@ -965,17 +969,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B2FB6F-F6FF-4612-A9A6-E7441E4E2505}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" customWidth="1"/>
@@ -986,7 +990,7 @@
     <col min="11" max="11" width="21" customWidth="1"/>
     <col min="13" max="13" width="21" customWidth="1"/>
     <col min="15" max="15" width="21" customWidth="1"/>
-    <col min="17" max="17" width="21" customWidth="1"/>
+    <col min="17" max="17" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -994,28 +998,28 @@
         <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="M1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="O1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Q1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1048,148 +1052,165 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>39</v>
+      <c r="A3" t="s">
+        <v>62</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="Q3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>40</v>
+      <c r="A4" t="s">
+        <v>86</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>51</v>
+      <c r="E4" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="Q4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q5" t="s">
         <v>50</v>
-      </c>
-      <c r="G5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="O6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
         <v>89</v>
       </c>
-      <c r="Q6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="M7" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1205,145 +1226,133 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
       <c r="E18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>91</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>38</v>
       </c>
       <c r="E25" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>67</v>
-      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>95</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
+++ b/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\FIPU\Druga godina\Baze podataka 2\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C87A72-A7D0-457C-AAD1-8D8E411689FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC54632-C3AC-4F42-9720-60B3A3F4B550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{87F66409-35C4-456F-BC62-BC56FFE0C1BA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="98">
   <si>
     <t>ERP SUSTAV VINARIJE</t>
   </si>
@@ -177,24 +177,15 @@
     <t>Zaposlenik</t>
   </si>
   <si>
-    <t>odjel</t>
-  </si>
-  <si>
     <t>datum_zaposlenja</t>
   </si>
   <si>
     <t>status</t>
   </si>
   <si>
-    <t>Naljepnica</t>
-  </si>
-  <si>
     <t>id_vino</t>
   </si>
   <si>
-    <t>zaliha</t>
-  </si>
-  <si>
     <t>datum_pocetka</t>
   </si>
   <si>
@@ -204,15 +195,9 @@
     <t>kolicina</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>lokacija</t>
   </si>
   <si>
-    <t>datum_ulaska</t>
-  </si>
-  <si>
     <t>rok_trajanja</t>
   </si>
   <si>
@@ -249,15 +234,6 @@
     <t>sorta</t>
   </si>
   <si>
-    <t>volumen</t>
-  </si>
-  <si>
-    <t>Cep</t>
-  </si>
-  <si>
-    <t>id_cep</t>
-  </si>
-  <si>
     <t>cijena</t>
   </si>
   <si>
@@ -318,21 +294,6 @@
     <t>postotak_alkohola</t>
   </si>
   <si>
-    <t>zaiha</t>
-  </si>
-  <si>
-    <t>Vrsta_ambalaze</t>
-  </si>
-  <si>
-    <t>tip</t>
-  </si>
-  <si>
-    <t>id_ambalaza</t>
-  </si>
-  <si>
-    <t>id_naljepnica</t>
-  </si>
-  <si>
     <t>Skladiste_proizvod</t>
   </si>
   <si>
@@ -349,13 +310,46 @@
   </si>
   <si>
     <t>datum_racuna</t>
+  </si>
+  <si>
+    <t>Repromaterijal</t>
+  </si>
+  <si>
+    <t>opis</t>
+  </si>
+  <si>
+    <t>id_repromaterijal</t>
+  </si>
+  <si>
+    <t>Skladiste_repromaterijal</t>
+  </si>
+  <si>
+    <t>datum</t>
+  </si>
+  <si>
+    <t>tip_transakcije</t>
+  </si>
+  <si>
+    <t>Odjel</t>
+  </si>
+  <si>
+    <t>broj_zaposlenika</t>
+  </si>
+  <si>
+    <t>id_odjel</t>
+  </si>
+  <si>
+    <t>Skladiste_vino</t>
+  </si>
+  <si>
+    <t>Repromaterijal_proizvod</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +380,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -395,7 +397,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -403,57 +405,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,24 +438,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2BC799C-FBE3-4B6A-8BA9-6116F036BD8C}" name="Table1" displayName="Table1" ref="A13:A19" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A336F9B4-C47B-4926-9979-30F51A2CB9D6}" name="Column1"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D4DAC399-B35D-4CE8-87AD-7A8A25B1CE95}" name="Table2" displayName="Table2" ref="C14:C20" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{BF1C3FBC-7060-426E-B84B-878F69F760D7}" name="Column1"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -789,13 +740,13 @@
   <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -905,7 +856,7 @@
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
@@ -969,397 +920,468 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B2FB6F-F6FF-4612-A9A6-E7441E4E2505}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="13" max="13" width="21" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" customWidth="1"/>
     <col min="15" max="15" width="21" customWidth="1"/>
     <col min="17" max="17" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" t="s">
         <v>45</v>
       </c>
-      <c r="G1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="I16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
         <v>67</v>
       </c>
-      <c r="K1" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="G27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s">
         <v>47</v>
       </c>
-      <c r="G3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
         <v>43</v>
-      </c>
-      <c r="G6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
+++ b/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\FIPU\Druga godina\Baze podataka 2\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC54632-C3AC-4F42-9720-60B3A3F4B550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2BB13A-3DA3-48AA-8F0B-6CB9AE380512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{87F66409-35C4-456F-BC62-BC56FFE0C1BA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="99">
   <si>
     <t>ERP SUSTAV VINARIJE</t>
   </si>
@@ -288,9 +288,6 @@
     <t>oib</t>
   </si>
   <si>
-    <t>e_mail</t>
-  </si>
-  <si>
     <t>postotak_alkohola</t>
   </si>
   <si>
@@ -343,6 +340,12 @@
   </si>
   <si>
     <t>Repromaterijal_proizvod</t>
+  </si>
+  <si>
+    <t>Prijevoznik</t>
+  </si>
+  <si>
+    <t>id_prijevoznik</t>
   </si>
 </sst>
 </file>
@@ -409,20 +412,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,8 +743,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -920,10 +918,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B2FB6F-F6FF-4612-A9A6-E7441E4E2505}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,40 +943,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="10"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="6"/>
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
       <c r="E2" t="s">
         <v>38</v>
       </c>
@@ -993,14 +989,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="6"/>
       <c r="E3" t="s">
         <v>57</v>
       </c>
@@ -1015,16 +1009,14 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="6"/>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
         <v>59</v>
@@ -1037,14 +1029,12 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="5"/>
       <c r="G5" t="s">
         <v>60</v>
       </c>
@@ -1052,99 +1042,84 @@
         <v>64</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="5"/>
       <c r="G6" t="s">
         <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="G7" s="5"/>
       <c r="I7" t="s">
         <v>49</v>
       </c>
+      <c r="K7" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7" t="s">
-        <v>90</v>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1154,7 +1129,6 @@
       <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="4"/>
       <c r="E14" t="s">
         <v>38</v>
       </c>
@@ -1175,7 +1149,6 @@
       <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="4"/>
       <c r="E15" t="s">
         <v>70</v>
       </c>
@@ -1186,17 +1159,16 @@
         <v>44</v>
       </c>
       <c r="K15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="4"/>
       <c r="E16" t="s">
         <v>54</v>
       </c>
@@ -1204,17 +1176,16 @@
         <v>45</v>
       </c>
       <c r="I16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="4"/>
       <c r="E17" t="s">
         <v>47</v>
       </c>
@@ -1222,17 +1193,16 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="4"/>
       <c r="E18" t="s">
         <v>72</v>
       </c>
@@ -1258,22 +1228,25 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
+      <c r="A22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1291,6 +1264,9 @@
         <v>38</v>
       </c>
       <c r="I23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1299,7 +1275,7 @@
         <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
         <v>57</v>
@@ -1308,12 +1284,15 @@
         <v>65</v>
       </c>
       <c r="I24" t="s">
-        <v>82</v>
+        <v>57</v>
+      </c>
+      <c r="K24" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
         <v>47</v>
@@ -1322,27 +1301,33 @@
         <v>74</v>
       </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>74</v>
+      </c>
+      <c r="K25" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
+        <v>66</v>
+      </c>
+      <c r="K26" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1356,10 +1341,13 @@
         <v>67</v>
       </c>
       <c r="G27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
+        <v>67</v>
+      </c>
+      <c r="K27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1372,12 +1360,23 @@
       <c r="E28" t="s">
         <v>78</v>
       </c>
+      <c r="G28" t="s">
+        <v>85</v>
+      </c>
       <c r="I28" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I29" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
         <v>43</v>
       </c>
     </row>

--- a/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
+++ b/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\FIPU\Druga godina\Baze podataka 2\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2BB13A-3DA3-48AA-8F0B-6CB9AE380512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34BE895-B7D7-46BD-A5FC-786E61AB581B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{87F66409-35C4-456F-BC62-BC56FFE0C1BA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="102">
   <si>
     <t>ERP SUSTAV VINARIJE</t>
   </si>
@@ -180,9 +180,6 @@
     <t>datum_zaposlenja</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>id_vino</t>
   </si>
   <si>
@@ -346,6 +343,18 @@
   </si>
   <si>
     <t>id_prijevoznik</t>
+  </si>
+  <si>
+    <t>status_narudzbe</t>
+  </si>
+  <si>
+    <t>status_nabave</t>
+  </si>
+  <si>
+    <t>status_zaposlenika</t>
+  </si>
+  <si>
+    <t>status_transporta</t>
   </si>
 </sst>
 </file>
@@ -854,7 +863,7 @@
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
@@ -921,7 +930,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,19 +961,19 @@
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L1" s="4"/>
     </row>
@@ -990,42 +999,42 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1033,16 +1042,16 @@
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1050,43 +1059,43 @@
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
         <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
@@ -1095,31 +1104,31 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1144,110 +1153,109 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
         <v>71</v>
       </c>
-      <c r="E18" t="s">
-        <v>72</v>
-      </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="3"/>
+        <v>96</v>
+      </c>
       <c r="I22" s="3" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1272,112 +1280,112 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I24" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="K24" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" t="s">
         <v>74</v>
-      </c>
-      <c r="G25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K25" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G27" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="I27" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K29" t="s">
-        <v>47</v>
+      <c r="I29" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K30" t="s">
-        <v>43</v>
+      <c r="I30" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
+++ b/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\FIPU\Druga godina\Baze podataka 2\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34BE895-B7D7-46BD-A5FC-786E61AB581B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C41336-F740-4DE3-A332-608014D28974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{87F66409-35C4-456F-BC62-BC56FFE0C1BA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="105">
   <si>
     <t>ERP SUSTAV VINARIJE</t>
   </si>
@@ -186,18 +186,12 @@
     <t>datum_pocetka</t>
   </si>
   <si>
-    <t>datum_zavrsetka</t>
-  </si>
-  <si>
     <t>kolicina</t>
   </si>
   <si>
     <t>lokacija</t>
   </si>
   <si>
-    <t>rok_trajanja</t>
-  </si>
-  <si>
     <t>Transport</t>
   </si>
   <si>
@@ -240,9 +234,6 @@
     <t>Proizvod</t>
   </si>
   <si>
-    <t>datum_punjenja</t>
-  </si>
-  <si>
     <t>id_kupac</t>
   </si>
   <si>
@@ -297,9 +288,6 @@
     <t>Racun</t>
   </si>
   <si>
-    <t>id_transport</t>
-  </si>
-  <si>
     <t>Zahtjev_za_nabavu</t>
   </si>
   <si>
@@ -355,6 +343,27 @@
   </si>
   <si>
     <t>status_transporta</t>
+  </si>
+  <si>
+    <t>volumen</t>
+  </si>
+  <si>
+    <t>id_berba</t>
+  </si>
+  <si>
+    <t>Berba</t>
+  </si>
+  <si>
+    <t>Punjenje</t>
+  </si>
+  <si>
+    <t>oznaka_serije</t>
+  </si>
+  <si>
+    <t>pocetak_punjenja</t>
+  </si>
+  <si>
+    <t>zavrsetak_punjenja</t>
   </si>
 </sst>
 </file>
@@ -863,7 +872,7 @@
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
@@ -927,10 +936,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B2FB6F-F6FF-4612-A9A6-E7441E4E2505}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,7 +960,7 @@
     <col min="17" max="17" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
@@ -961,23 +970,25 @@
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="4"/>
+      <c r="I1" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="K1" s="4" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -996,48 +1007,57 @@
       <c r="K2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="M4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1045,93 +1065,90 @@
         <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="M6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="G13" s="3" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1150,245 +1167,254 @@
       <c r="K14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" t="s">
         <v>64</v>
       </c>
-      <c r="E15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>74</v>
       </c>
-      <c r="E16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" t="s">
-        <v>89</v>
-      </c>
-      <c r="K16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+      <c r="M19" t="s">
         <v>46</v>
       </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>98</v>
-      </c>
-      <c r="I19" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" t="s">
         <v>74</v>
       </c>
-      <c r="E24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
         <v>97</v>
-      </c>
-      <c r="K24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" t="s">
-        <v>73</v>
-      </c>
-      <c r="I25" t="s">
-        <v>80</v>
-      </c>
-      <c r="K25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I28" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I30" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
+++ b/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\FIPU\Druga godina\Baze podataka 2\Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vid\Desktop\BazePodataka2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C41336-F740-4DE3-A332-608014D28974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DF793B-D5D4-4EA3-95B5-CE2968BDD836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{87F66409-35C4-456F-BC62-BC56FFE0C1BA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="106">
   <si>
     <t>ERP SUSTAV VINARIJE</t>
   </si>
@@ -365,12 +365,15 @@
   <si>
     <t>zavrsetak_punjenja</t>
   </si>
+  <si>
+    <t>mp_stanje_skladišta_vina</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +412,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -430,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -439,9 +451,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -457,9 +470,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -497,7 +510,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -603,7 +616,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -939,7 +952,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,6 +1301,9 @@
       <c r="K22" s="3" t="s">
         <v>78</v>
       </c>
+      <c r="M22" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1307,6 +1323,9 @@
       </c>
       <c r="K23" t="s">
         <v>38</v>
+      </c>
+      <c r="M23" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1327,6 +1346,9 @@
       </c>
       <c r="K24" t="s">
         <v>71</v>
+      </c>
+      <c r="M24" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">

--- a/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
+++ b/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vid\Desktop\BazePodataka2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\FIPU\Druga godina\Baze podataka 2\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DF793B-D5D4-4EA3-95B5-CE2968BDD836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7036481-CD3F-4CC6-8DD2-865542AD978F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{87F66409-35C4-456F-BC62-BC56FFE0C1BA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="110">
   <si>
     <t>ERP SUSTAV VINARIJE</t>
   </si>
@@ -367,6 +367,18 @@
   </si>
   <si>
     <t>mp_stanje_skladišta_vina</t>
+  </si>
+  <si>
+    <t>jedinicna_cijena</t>
+  </si>
+  <si>
+    <t>Stanje_skladista_vina</t>
+  </si>
+  <si>
+    <t>Stanje_skladista_proizvoda</t>
+  </si>
+  <si>
+    <t>Stanje_skladista_repromaterijala</t>
   </si>
 </sst>
 </file>
@@ -448,13 +460,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -470,9 +482,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -510,7 +522,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -616,7 +628,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -774,8 +786,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -949,10 +961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B2FB6F-F6FF-4612-A9A6-E7441E4E2505}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,7 +1267,7 @@
         <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="G18" t="s">
         <v>67</v>
@@ -1271,9 +1283,6 @@
       <c r="A19" t="s">
         <v>74</v>
       </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
       <c r="G19" t="s">
         <v>94</v>
       </c>
@@ -1301,7 +1310,7 @@
       <c r="K22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="5" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1433,6 +1442,41 @@
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
+++ b/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\FIPU\Druga godina\Baze podataka 2\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7036481-CD3F-4CC6-8DD2-865542AD978F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCEDECE-1EF5-4FB2-AB7A-D05EDB7294E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{87F66409-35C4-456F-BC62-BC56FFE0C1BA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="111">
   <si>
     <t>ERP SUSTAV VINARIJE</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>Stanje_skladista_repromaterijala</t>
+  </si>
+  <si>
+    <t>Prodani_proizvodi</t>
   </si>
 </sst>
 </file>
@@ -961,10 +964,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B2FB6F-F6FF-4612-A9A6-E7441E4E2505}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,8 +1459,11 @@
       <c r="E32" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -1467,8 +1473,11 @@
       <c r="E33" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1477,6 +1486,14 @@
       </c>
       <c r="E34" t="s">
         <v>45</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
+++ b/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\FIPU\Druga godina\Baze podataka 2\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCEDECE-1EF5-4FB2-AB7A-D05EDB7294E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FC352D-FA24-49E2-9EBF-3961B4E91AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{87F66409-35C4-456F-BC62-BC56FFE0C1BA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="113">
   <si>
     <t>ERP SUSTAV VINARIJE</t>
   </si>
@@ -381,7 +381,13 @@
     <t>Stanje_skladista_repromaterijala</t>
   </si>
   <si>
-    <t>Prodani_proizvodi</t>
+    <t>Kvartalni_pregled_prodaje</t>
+  </si>
+  <si>
+    <t>pocetni_datum</t>
+  </si>
+  <si>
+    <t>zavrsni_datum</t>
   </si>
 </sst>
 </file>
@@ -964,10 +970,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B2FB6F-F6FF-4612-A9A6-E7441E4E2505}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,6 +1502,16 @@
         <v>67</v>
       </c>
     </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
+++ b/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\FIPU\Druga godina\Baze podataka 2\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FC352D-FA24-49E2-9EBF-3961B4E91AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CA19EB-80EF-407C-928C-22A4B1F4F1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{87F66409-35C4-456F-BC62-BC56FFE0C1BA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="114">
   <si>
     <t>ERP SUSTAV VINARIJE</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>zavrsni_datum</t>
+  </si>
+  <si>
+    <t>id_transport</t>
   </si>
 </sst>
 </file>
@@ -970,10 +973,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B2FB6F-F6FF-4612-A9A6-E7441E4E2505}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,7 +1262,7 @@
         <v>82</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="I17" t="s">
         <v>45</v>
@@ -1279,7 +1282,7 @@
         <v>106</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I18" t="s">
         <v>68</v>
@@ -1293,222 +1296,227 @@
         <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="M19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M23" s="5" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" t="s">
-        <v>38</v>
-      </c>
-      <c r="M23" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="K24" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="M24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="I25" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K25" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="M25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" t="s">
         <v>45</v>
       </c>
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" t="s">
-        <v>64</v>
-      </c>
       <c r="G27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="K27" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>46</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>46</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>95</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>74</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I29" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I29" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3" t="s">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>99</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>51</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>83</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>45</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>45</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E36" t="s">
         <v>45</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G36" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G36" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
         <v>112</v>
       </c>
     </row>

--- a/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
+++ b/BP2-Projekt_Upravljanje_vinarijom_ERP_sustav.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\FIPU\Druga godina\Baze podataka 2\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CA19EB-80EF-407C-928C-22A4B1F4F1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE53A103-E622-44F7-A7D7-56A367BB11E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{87F66409-35C4-456F-BC62-BC56FFE0C1BA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="113">
   <si>
     <t>ERP SUSTAV VINARIJE</t>
   </si>
@@ -384,13 +384,10 @@
     <t>Kvartalni_pregled_prodaje</t>
   </si>
   <si>
-    <t>pocetni_datum</t>
-  </si>
-  <si>
-    <t>zavrsni_datum</t>
-  </si>
-  <si>
     <t>id_transport</t>
+  </si>
+  <si>
+    <t>kvartal</t>
   </si>
 </sst>
 </file>
@@ -973,10 +970,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B2FB6F-F6FF-4612-A9A6-E7441E4E2505}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,7 +1259,7 @@
         <v>82</v>
       </c>
       <c r="G17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I17" t="s">
         <v>45</v>
@@ -1512,11 +1509,6 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G39" t="s">
         <v>112</v>
       </c>
     </row>
